--- a/data/evaluation/evaluation_South_Winter_Lemons.xlsx
+++ b/data/evaluation/evaluation_South_Winter_Lemons.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1321.417676767677</v>
+        <v>1316.973232323232</v>
       </c>
       <c r="C3" t="n">
-        <v>3548049.355918257</v>
+        <v>3529382.689251591</v>
       </c>
       <c r="D3" t="n">
-        <v>1883.62664982163</v>
+        <v>1878.665134943317</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5115337406409302</v>
+        <v>0.5141036138097349</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1318.789295531443</v>
+        <v>1305.986755563289</v>
       </c>
       <c r="C4" t="n">
-        <v>3549681.336664856</v>
+        <v>3456864.39029424</v>
       </c>
       <c r="D4" t="n">
-        <v>1884.059801775107</v>
+        <v>1859.264475617775</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5113090629516788</v>
+        <v>0.5240873368849772</v>
       </c>
     </row>
     <row r="5">
